--- a/jquery-1.7.2/jQuery-1.7.2选择器模块.xlsx
+++ b/jquery-1.7.2/jQuery-1.7.2选择器模块.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,44 +16,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="81">
   <si>
     <t>Sizzle选择器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>核心正则chunker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二个分组匹配并列的操作符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一个分组匹配伪类，属性，操作符，类名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三个分组匹配换行符，和前两组，没有匹配到的内容(例如id等)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soFar存放第三个分组内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>parts存放第一个分组内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如果存在并列操作符，使用extra存放第三个分组内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果不存在并列，while循环只执行两次。soFar是对并列后内容的迭代</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Expr.match</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,18 +35,6 @@
   </si>
   <si>
     <t>/:(nth|eq|gt|lt|first|last|even|odd)(?:\((\d*)\))?(?=[^\-]|$)/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>换句话说，一个待查询的selector会被切分成若干的小查询条件存放在parts中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下面存在如下几种情况：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.parts中，如果第一个是id，最后一个不是id的情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -183,35 +143,167 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/(^(?:.|\r|\n)*?)^((?:[\w\u00c0-\uFFFF\*\-]|\\.)+)(?![^\[]*\])(?![^\(]*\))/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/:(nth|eq|gt|lt|first|last|even|odd)(?:\((\d*)\))?(?=[^\-]|$)(?![^\[]*\])(?![^\(]*\))/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/(^(?:.|\r|\n)*?):(only|nth|last|first)-child(?:\(\s*(even|odd|(?:[+\-]?\d+|(?:[+\-]?\d*)?n\s*(?:[+\-]\s*\d+)?))\s*\))?(?![^\[]*\])(?![^\(]*\))/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSEUDO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/:((?:[\w\u00c0-\uFFFF\-]|\\.)+)(?:\((['"]?)((?:\([^\)]+\)|[^\(\)]*)+)\2\))?(?![^\[]*\])(?![^\(]*\))/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/(^(?:.|\r|\n)*?):(nth|eq|gt|lt|first|last|even|odd)(?:\((\d*)\))?(?=[^\-]|$)(?![^\[]*\])(?![^\(]*\))/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/(^(?:.|\r|\n)*?):((?:[\w\u00c0-\uFFFF\-]|\\.)+)(?:\((['"]?)((?:\([^\)]+\)|[^\(\)]*)+)\2\))?(?![^\[]*\])(?![^\(]*\))/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rBackslash = /\\/g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.通过leftMatch对parts的成员进行进一步解析划分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.将前置父节点切分出去，即这个方法名所谓的从左匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.其含义就是切出右侧部分，这里会依次尝试是否匹配ID，NAME和TAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.如果匹配则率先调用Expr.find方法查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expr.find</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里分别有对ID，NAME和TAG的获取。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.对于ID，启用原生的getElementById</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.对于NAME，启用原生的getElementsByName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.对于TAG，启用原生的getElementsByTagName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果浏览器不支持上述API，则查询返回undefined</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.在查找完之后，通过replace滤掉之前已经查找到的字段。将前置字段(父节点查询字段)作为expr属性一并返回，为下面过滤节点使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.如果查找失败，则不需要5步骤，因为本次查找已经失败了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.在3步骤时，如果匹配失败，则调用getElementsByTagName查到所有节点，为后续节点过滤做准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.通过leftMatch对前置内容expr进行解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/:(only|nth|last|first)-child(?:\(\s*(even|odd|(?:[+\-]?\d+|(?:[+\-]?\d*)?n\s*(?:[+\-]\s*\d+)?))\s*\))?(?![^\[]*\])(?![^\(]*\))/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/(^(?:.|\r|\n)*?)^((?:[\w\u00c0-\uFFFF\*\-]|\\.)+)(?![^\[]*\])(?![^\(]*\))/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/:(nth|eq|gt|lt|first|last|even|odd)(?:\((\d*)\))?(?=[^\-]|$)(?![^\[]*\])(?![^\(]*\))/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/(^(?:.|\r|\n)*?):(only|nth|last|first)-child(?:\(\s*(even|odd|(?:[+\-]?\d+|(?:[+\-]?\d*)?n\s*(?:[+\-]\s*\d+)?))\s*\))?(?![^\[]*\])(?![^\(]*\))/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSEUDO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/:((?:[\w\u00c0-\uFFFF\-]|\\.)+)(?:\((['"]?)((?:\([^\)]+\)|[^\(\)]*)+)\2\))?(?![^\[]*\])(?![^\(]*\))/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/(^(?:.|\r|\n)*?):(nth|eq|gt|lt|first|last|even|odd)(?:\((\d*)\))?(?=[^\-]|$)(?![^\[]*\])(?![^\(]*\))/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/(^(?:.|\r|\n)*?):((?:[\w\u00c0-\uFFFF\-]|\\.)+)(?:\((['"]?)((?:\([^\)]+\)|[^\(\)]*)+)\2\))?(?![^\[]*\])(?![^\(]*\))/</t>
+    <t>Expr.preFilter 4475</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expr.filter 4713</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心正则chunker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个分组匹配伪类，属性，操作符，类名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二个分组匹配并列的操作符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三个分组匹配换行符，和前两组，没有匹配到的内容(例如id等)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soFar存放第三个分组内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果存在并列操作符，使用extra存放第三个分组内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果不存在并列，while循环只执行两次。soFar是对并列后内容的迭代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换句话说，一个待查询的selector会被切分成若干的小查询条件存放在parts中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面存在如下几种情况：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.parts中，如果第一个是id，最后一个不是id的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sizzle.filter(Sizzle的静态方法) 4187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.执行Expr.preFilter去过滤节点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -219,95 +311,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rBackslash = /\\/g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.通过leftMatch对parts的成员进行进一步解析划分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.将前置父节点切分出去，即这个方法名所谓的从左匹配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.其含义就是切出右侧部分，这里会依次尝试是否匹配ID，NAME和TAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.如果匹配则率先调用Expr.find方法查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expr.find</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里分别有对ID，NAME和TAG的获取。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.对于ID，启用原生的getElementById</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.对于NAME，启用原生的getElementsByName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.对于TAG，启用原生的getElementsByTagName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果浏览器不支持上述API，则查询返回undefined</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.在查找完之后，通过replace滤掉之前已经查找到的字段。将前置字段(父节点查询字段)作为expr属性一并返回，为下面过滤节点使用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.如果查找失败，则不需要5步骤，因为本次查找已经失败了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.在3步骤时，如果匹配失败，则调用getElementsByTagName查到所有节点，为后续节点过滤做准备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLASS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sizzle.filter(Sizzle的静态方法)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.通过leftMatch对前置内容expr进行解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expr.preFilter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.执行Expr.preFilter去过滤节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expr.filter</t>
+    <t>从右向左</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expr.relative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expr.relative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"~"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dirCheck 再次调用Sizzle.filter()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -659,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -678,125 +710,125 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.15">
@@ -804,9 +836,24 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -818,10 +865,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -833,248 +880,271 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/jquery-1.7.2/jQuery-1.7.2选择器模块.xlsx
+++ b/jquery-1.7.2/jQuery-1.7.2选择器模块.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="132">
   <si>
     <t>Sizzle选择器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,6 +340,210 @@
   </si>
   <si>
     <t>dirCheck 再次调用Sizzle.filter()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖查询dom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.class1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#document</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soFar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入Sizzle.find方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.class1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getElementsByTagName("*")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入Sizzle.filter方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>match(遍历Expr.filter，去解析expr)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[".class1","","class1"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>results(调用Expr.preFilter查找类节点)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历Sizzle.find的set节点检查是否有满足类名的节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#id1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单纯id不走old Sizzle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tagName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在init中处理掉了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在init中处理掉了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入Expr.find.TAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入Expr.find.TAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据*查找所有节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看是否还有expr，有则需要进入filter方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入Sizzle.find方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据span查找节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element, element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div, span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["div"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据div查找节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查extra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果存在，则重新执行Sizzle方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["span"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入Expr.find.TAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div span</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -691,7 +895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -867,7 +1071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
@@ -1156,12 +1360,264 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="5" width="27.125" customWidth="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1"/>
+    <col min="9" max="9" width="30.625" customWidth="1"/>
+    <col min="10" max="10" width="42.375" customWidth="1"/>
+    <col min="11" max="11" width="21.875" customWidth="1"/>
+    <col min="12" max="12" width="33.5" customWidth="1"/>
+    <col min="13" max="13" width="46.25" customWidth="1"/>
+    <col min="14" max="14" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" t="s">
+        <v>111</v>
+      </c>
+      <c r="N15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" t="s">
+        <v>107</v>
+      </c>
+      <c r="J17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/jquery-1.7.2/jQuery-1.7.2选择器模块.xlsx
+++ b/jquery-1.7.2/jQuery-1.7.2选择器模块.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="167">
   <si>
     <t>Sizzle选择器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,231 +319,371 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"~"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dirCheck 再次调用Sizzle.filter()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖查询dom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.class1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#document</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soFar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入Sizzle.find方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.class1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>match(遍历Expr.filter，去解析expr)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[".class1","","class1"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#id1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单纯id不走old Sizzle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tagName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在init中处理掉了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在init中处理掉了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入Expr.find.TAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入Expr.find.TAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据*查找所有节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入Sizzle.find方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据span查找节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element, element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div, span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["div"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据div查找节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查extra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果存在，则重新执行Sizzle方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["span"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入Expr.find.TAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#document</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div 和span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["div", "span"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入Sizzle.find方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将parts的内容pop出来，先查找span的节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入Expr.find.TAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据span查找节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父节点内容通过Expr.relative定位查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯处理tag，进入dirNodeCheck方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查父元素的tagName是否是div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element &gt; element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p &gt; i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p,&gt;,i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["p","&gt;","i"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将parts的内容pop出来，先查找i的节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入Expr.find.TAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据i查找节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父节点内容通过Expr.relative定位查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里有&gt;，进入对应的&gt;处理方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element + element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>section &gt; .bother</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>section,&gt;,.bother</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["section","&gt;",".bother"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入Sizzle.find方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将parts的内容pop出来，先根据.bother查找节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.bother</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getElementsByTagName("*")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getElementsByTagName("*")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看是否还有expr，有则需要进入filter方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看是否还有expr，有则需要进入filter方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入Sizzle.filter方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入Sizzle.filter方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先使用Expr.leftMatch对Sizzle.find中没有成功解析的查询条件进行解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>results(调用Expr.preFilter查找类节点)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>results(调用Expr.preFilter查找类节点)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历Sizzle.find的set节点检查是否有满足类名的节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历Sizzle.find的set节点检查是否有满足类名的节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为在Sizzle.find中没有对class进行解析，所以这里set将会所有的节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Expr.relative</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"~"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dirCheck 再次调用Sizzle.filter()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程实例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依赖查询dom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.class1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#document</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soFar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入Sizzle.find方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.class1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getElementsByTagName("*")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入Sizzle.filter方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>match(遍历Expr.filter，去解析expr)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[".class1","","class1"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>results(调用Expr.preFilter查找类节点)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遍历Sizzle.find的set节点检查是否有满足类名的节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#id1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单纯id不走old Sizzle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tagName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>element</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在init中处理掉了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在init中处理掉了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入Expr.find.TAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入Expr.find.TAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据*查找所有节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看是否还有expr，有则需要进入filter方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入Sizzle.find方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据span查找节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>element, element</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>div, span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>div</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["div"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>div</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据div查找节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查extra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果存在，则重新执行Sizzle方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["span"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入Expr.find.TAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>element element</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>div span</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1047,12 +1187,12 @@
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.15">
@@ -1071,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1330,25 +1470,25 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1360,261 +1500,392 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="L10" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.75" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="30.25" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="5" width="27.125" customWidth="1"/>
-    <col min="7" max="7" width="22.75" customWidth="1"/>
+    <col min="6" max="6" width="26.75" customWidth="1"/>
+    <col min="7" max="7" width="44" customWidth="1"/>
     <col min="9" max="9" width="30.625" customWidth="1"/>
     <col min="10" max="10" width="42.375" customWidth="1"/>
-    <col min="11" max="11" width="21.875" customWidth="1"/>
-    <col min="12" max="12" width="33.5" customWidth="1"/>
-    <col min="13" max="13" width="46.25" customWidth="1"/>
+    <col min="11" max="11" width="35.625" customWidth="1"/>
+    <col min="12" max="12" width="65.375" customWidth="1"/>
+    <col min="13" max="13" width="65.25" customWidth="1"/>
     <col min="14" max="14" width="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
         <v>82</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>83</v>
       </c>
-      <c r="C2" t="s">
-        <v>84</v>
-      </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
         <v>90</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>91</v>
       </c>
-      <c r="H2" t="s">
-        <v>92</v>
-      </c>
       <c r="I2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J2" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="K2" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="L2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M2" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
         <v>85</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>86</v>
       </c>
-      <c r="C3" t="s">
-        <v>87</v>
-      </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I3" t="s">
+        <v>154</v>
+      </c>
+      <c r="L3" t="s">
         <v>94</v>
       </c>
-      <c r="L3" t="s">
-        <v>97</v>
-      </c>
       <c r="M3" t="s">
-        <v>100</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="J10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="J13" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" t="s">
         <v>118</v>
       </c>
-      <c r="B15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F15" t="s">
-        <v>123</v>
-      </c>
-      <c r="G15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" t="s">
-        <v>124</v>
-      </c>
       <c r="I15" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J15" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="N15" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="J16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" t="s">
+        <v>102</v>
+      </c>
+      <c r="J17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="C20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" t="s">
         <v>128</v>
       </c>
-      <c r="G17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" t="s">
-        <v>107</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="G20" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="J18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="G21" t="s">
         <v>130</v>
       </c>
-      <c r="B20" t="s">
+      <c r="H21" t="s">
         <v>131</v>
+      </c>
+      <c r="J21" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" t="s">
+        <v>134</v>
+      </c>
+      <c r="L21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J22" t="s">
+        <v>133</v>
+      </c>
+      <c r="L22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="G25" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" t="s">
+        <v>142</v>
+      </c>
+      <c r="J25" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J26" t="s">
+        <v>144</v>
+      </c>
+      <c r="K26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28" t="s">
+        <v>150</v>
+      </c>
+      <c r="G28" t="s">
+        <v>151</v>
+      </c>
+      <c r="H28" t="s">
+        <v>153</v>
+      </c>
+      <c r="I28" t="s">
+        <v>155</v>
+      </c>
+      <c r="J28" t="s">
+        <v>157</v>
+      </c>
+      <c r="K28" t="s">
+        <v>159</v>
+      </c>
+      <c r="L28" t="s">
+        <v>160</v>
+      </c>
+      <c r="M28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="G29" t="s">
+        <v>152</v>
+      </c>
+      <c r="M29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M30" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/jquery-1.7.2/jQuery-1.7.2选择器模块.xlsx
+++ b/jquery-1.7.2/jQuery-1.7.2选择器模块.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="263">
   <si>
     <t>Sizzle选择器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -511,15 +511,179 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>element element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#document</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div 和span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["div", "span"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入Sizzle.find方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将parts的内容pop出来，先查找span的节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>进入Expr.find.TAG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>element element</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>div span</t>
+    <t>element &gt; element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p &gt; i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p,&gt;,i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["p","&gt;","i"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将parts的内容pop出来，先查找i的节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入Expr.find.TAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据i查找节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父节点内容通过Expr.relative定位查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里有&gt;，进入对应的&gt;处理方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element + element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>section &gt; .bother</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>section,&gt;,.bother</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["section","&gt;",".bother"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入Sizzle.find方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将parts的内容pop出来，先根据.bother查找节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.bother</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getElementsByTagName("*")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看是否还有expr，有则需要进入filter方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入Sizzle.filter方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入Sizzle.filter方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先使用Expr.leftMatch对Sizzle.find中没有成功解析的查询条件进行解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>results(调用Expr.preFilter查找类节点)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>results(调用Expr.preFilter查找类节点)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历Sizzle.find的set节点检查是否有满足类名的节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历Sizzle.find的set节点检查是否有满足类名的节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为在Sizzle.find中没有对class进行解析，所以这里set将会所有的节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expr.relative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["section"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将parts的内容pop出来，根据section继续查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>section</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找到的bother的节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入Expr.relative[+]进行筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[attribute]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[attribute=value]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -527,23 +691,291 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>div 和span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["div", "span"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>进入Sizzle.find方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>将parts的内容pop出来，先查找span的节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>span</t>
+    <t>getElementsByTagName("*")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getElementsByTagName("*")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看是否还有expr，有则需要进入filter方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看是否还有expr，有则需要进入filter方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入Expr.preFilter["attr"]查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Expr.preFilter["attr"]中，对match进行修葺，进而进入Expr.filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expr.filter["attr"]。三目设计着实着急</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[type=\"button\"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将parts的内容pop出来，先根据[type=\"button\"]查找节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[type]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[type]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将parts的内容pop出来，先根据[type]查找节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[type]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getElementsByTagName("*")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看是否还有expr，有则需要进入filter方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入Expr.preFilter["attr"]查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Expr.preFilter["attr"]中，对match进行修葺，进而进入Expr.filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expr.filter["attr"]。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Sizzle.filter中，如果match没有匹配结束，就使用Expr.filter继续过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[attribute~=value]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[title~=\"am\"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[title~=\"am\"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将parts的内容pop出来，先根据[title~=\"am\"]查找节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expr.filter["attr"]。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Sizzle.filter中，如果match没有匹配结束，就使用Expr.filter继续过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attribute|=value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[title|=\"I\"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[title|=\"I\"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将parts的内容pop出来，先根据[title|=\"I\"]查找节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expr.filters(1.7.2支持的伪类)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>has</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heaader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>focus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[:link]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[a:link]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[a:link]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将parts的内容pop出来，先根据[a:link]查找节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找标签名为a的节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入Expr.preFilter["PSEUDO"]查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看Expr.filters，当前Sizzle引擎支持的伪类类型，如果没有抛出异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expr.preFilter["PSEUDO"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果支持Sizzle的伪类，则使用Expr.filter继续过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery1.7.2的Sizzle引擎中还支持如下伪类：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHILD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持only-child，last-child,first-child，nth-child()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持nth(),eq(),gt(),lt(),first(),last(),even(),odd()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element ~ element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p ~ strong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[p,~,strong]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[p,~,strong]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入Sizzle.find方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将parts的内容pop出来，先根据strong查找节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找标签名为strong的节点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -551,139 +983,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>进入Expr.find.TAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>根据span查找节点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>根据strong查找节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>父节点内容通过Expr.relative定位查找</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>父节点内容通过Expr.relative定位查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查父元素的tagName是否是div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>纯处理tag，进入dirNodeCheck方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>检查父元素的tagName是否是div</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>element &gt; element</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p &gt; i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p,&gt;,i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["p","&gt;","i"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将parts的内容pop出来，先查找i的节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入Expr.find.TAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据i查找节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父节点内容通过Expr.relative定位查找</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里有&gt;，进入对应的&gt;处理方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>element + element</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>section &gt; .bother</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>section,&gt;,.bother</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["section","&gt;",".bother"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入Sizzle.find方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将parts的内容pop出来，先根据.bother查找节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.bother</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getElementsByTagName("*")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getElementsByTagName("*")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看是否还有expr，有则需要进入filter方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看是否还有expr，有则需要进入filter方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入Sizzle.filter方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入Sizzle.filter方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先使用Expr.leftMatch对Sizzle.find中没有成功解析的查询条件进行解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>results(调用Expr.preFilter查找类节点)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>results(调用Expr.preFilter查找类节点)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遍历Sizzle.find的set节点检查是否有满足类名的节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遍历Sizzle.find的set节点检查是否有满足类名的节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为在Sizzle.find中没有对class进行解析，所以这里set将会所有的节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expr.relative</t>
+    <t>纯处理tag，进入dirNodeCheck方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查前节点元素的tagName是否是p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[attribute^=value]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[title^=\"I\"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[title^=\"I\"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将parts的内容pop出来，先根据[title^=\"I\"]查找节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p:nth-child(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:nth-child(n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p:nth-child(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[p:nth-child(2)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将parts的内容pop出来，先根据[p:nth-child(2)]查找节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[p:nth-child(2)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找标签名为p的节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先进入进入Expr.preFilter["PSEUDO"]查找，再进入Expr.preFilter["CHILD"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expr.preFilter["CHILD"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1209,15 +1593,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="34.625" customWidth="1"/>
+    <col min="1" max="1" width="43.625" customWidth="1"/>
     <col min="2" max="2" width="8.75" customWidth="1"/>
     <col min="3" max="3" width="151.75" customWidth="1"/>
   </cols>
@@ -1470,7 +1854,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B68" t="s">
         <v>75</v>
@@ -1489,6 +1873,123 @@
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>198</v>
+      </c>
+      <c r="B76" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B77" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B78" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B80" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B81" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B82" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B84" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B85" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B86" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B87" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B89" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B90" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B91" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B92" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B93" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B94" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>227</v>
+      </c>
+      <c r="B96" t="s">
+        <v>228</v>
+      </c>
+      <c r="C96" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B97" t="s">
+        <v>230</v>
+      </c>
+      <c r="C97" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -1500,10 +2001,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView topLeftCell="L10" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1513,10 +2014,11 @@
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="5" width="27.125" customWidth="1"/>
     <col min="6" max="6" width="26.75" customWidth="1"/>
-    <col min="7" max="7" width="44" customWidth="1"/>
+    <col min="7" max="7" width="56.125" customWidth="1"/>
+    <col min="8" max="8" width="19.625" customWidth="1"/>
     <col min="9" max="9" width="30.625" customWidth="1"/>
     <col min="10" max="10" width="42.375" customWidth="1"/>
-    <col min="11" max="11" width="35.625" customWidth="1"/>
+    <col min="11" max="11" width="71" customWidth="1"/>
     <col min="12" max="12" width="65.375" customWidth="1"/>
     <col min="13" max="13" width="65.25" customWidth="1"/>
     <col min="14" max="14" width="32" customWidth="1"/>
@@ -1559,16 +2061,16 @@
         <v>95</v>
       </c>
       <c r="J2" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="K2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="L2" t="s">
         <v>93</v>
       </c>
       <c r="M2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
@@ -1591,13 +2093,13 @@
         <v>92</v>
       </c>
       <c r="I3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L3" t="s">
         <v>94</v>
       </c>
       <c r="M3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -1742,7 +2244,7 @@
         <v>102</v>
       </c>
       <c r="J17" t="s">
-        <v>123</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
@@ -1752,140 +2254,533 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" t="s">
         <v>124</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>125</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>126</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>127</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>128</v>
-      </c>
-      <c r="G20" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G21" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" t="s">
         <v>130</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>131</v>
       </c>
-      <c r="J21" t="s">
-        <v>132</v>
-      </c>
       <c r="K21" t="s">
-        <v>134</v>
+        <v>244</v>
       </c>
       <c r="L21" t="s">
-        <v>135</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="J22" t="s">
-        <v>133</v>
+        <v>242</v>
       </c>
       <c r="L22" t="s">
-        <v>136</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D24" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F24" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G25" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H25" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J25" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="K25" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="J26" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="K26" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28" t="s">
         <v>148</v>
       </c>
-      <c r="C28" t="s">
-        <v>126</v>
-      </c>
-      <c r="D28" t="s">
-        <v>149</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="I28" t="s">
+        <v>169</v>
+      </c>
+      <c r="J28" t="s">
         <v>150</v>
       </c>
-      <c r="G28" t="s">
-        <v>151</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="K28" t="s">
+        <v>152</v>
+      </c>
+      <c r="L28" t="s">
         <v>153</v>
       </c>
-      <c r="I28" t="s">
+      <c r="M28" t="s">
         <v>155</v>
-      </c>
-      <c r="J28" t="s">
-        <v>157</v>
-      </c>
-      <c r="K28" t="s">
-        <v>159</v>
-      </c>
-      <c r="L28" t="s">
-        <v>160</v>
-      </c>
-      <c r="M28" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G29" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="M29" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F30" t="s">
+        <v>160</v>
+      </c>
+      <c r="G30" t="s">
+        <v>161</v>
+      </c>
+      <c r="H30" t="s">
+        <v>162</v>
+      </c>
+      <c r="I30" t="s">
+        <v>163</v>
+      </c>
+      <c r="J30" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="M30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" t="s">
+        <v>176</v>
+      </c>
+      <c r="F32" t="s">
+        <v>176</v>
+      </c>
+      <c r="G32" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G33" t="s">
+        <v>177</v>
+      </c>
+      <c r="H33" t="s">
+        <v>176</v>
+      </c>
+      <c r="I33" t="s">
+        <v>170</v>
+      </c>
+      <c r="J33" t="s">
+        <v>172</v>
+      </c>
+      <c r="K33" t="s">
+        <v>173</v>
+      </c>
+      <c r="L33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>165</v>
+      </c>
+      <c r="B36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" t="s">
+        <v>178</v>
+      </c>
+      <c r="G36" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G37" t="s">
+        <v>180</v>
+      </c>
+      <c r="H37" t="s">
+        <v>181</v>
+      </c>
+      <c r="I37" t="s">
+        <v>182</v>
+      </c>
+      <c r="J37" t="s">
+        <v>183</v>
+      </c>
+      <c r="K37" t="s">
+        <v>184</v>
+      </c>
+      <c r="L37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K38" t="s">
+        <v>174</v>
+      </c>
+      <c r="L38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>188</v>
+      </c>
+      <c r="B40" t="s">
+        <v>189</v>
+      </c>
+      <c r="C40" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" t="s">
+        <v>190</v>
+      </c>
+      <c r="F40" t="s">
+        <v>190</v>
+      </c>
+      <c r="G40" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G41" t="s">
+        <v>191</v>
+      </c>
+      <c r="H41" t="s">
+        <v>190</v>
+      </c>
+      <c r="I41" t="s">
+        <v>182</v>
+      </c>
+      <c r="J41" t="s">
+        <v>183</v>
+      </c>
+      <c r="K41" t="s">
+        <v>184</v>
+      </c>
+      <c r="L41" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K42" t="s">
+        <v>174</v>
+      </c>
+      <c r="L42" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>194</v>
+      </c>
+      <c r="B43" t="s">
+        <v>195</v>
+      </c>
+      <c r="C43" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43" t="s">
+        <v>196</v>
+      </c>
+      <c r="F43" t="s">
+        <v>196</v>
+      </c>
+      <c r="G43" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G44" t="s">
+        <v>197</v>
+      </c>
+      <c r="H44" t="s">
+        <v>196</v>
+      </c>
+      <c r="I44" t="s">
+        <v>182</v>
+      </c>
+      <c r="J44" t="s">
+        <v>183</v>
+      </c>
+      <c r="K44" t="s">
+        <v>184</v>
+      </c>
+      <c r="L44" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K45" t="s">
+        <v>174</v>
+      </c>
+      <c r="L45" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>218</v>
+      </c>
+      <c r="B46" t="s">
+        <v>219</v>
+      </c>
+      <c r="C46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" t="s">
+        <v>220</v>
+      </c>
+      <c r="F46" t="s">
+        <v>220</v>
+      </c>
+      <c r="G46" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G47" t="s">
+        <v>221</v>
+      </c>
+      <c r="H47" t="s">
+        <v>220</v>
+      </c>
+      <c r="I47" t="s">
+        <v>222</v>
+      </c>
+      <c r="J47" t="s">
+        <v>172</v>
+      </c>
+      <c r="K47" t="s">
+        <v>223</v>
+      </c>
+      <c r="L47" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K48" t="s">
+        <v>224</v>
+      </c>
+      <c r="L48" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>232</v>
+      </c>
+      <c r="B49" t="s">
+        <v>233</v>
+      </c>
+      <c r="C49" t="s">
+        <v>167</v>
+      </c>
+      <c r="D49" t="s">
+        <v>234</v>
+      </c>
+      <c r="F49" t="s">
+        <v>235</v>
+      </c>
+      <c r="G49" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G50" t="s">
+        <v>237</v>
+      </c>
+      <c r="H50" t="s">
+        <v>238</v>
+      </c>
+      <c r="I50" t="s">
+        <v>239</v>
+      </c>
+      <c r="J50" t="s">
+        <v>241</v>
+      </c>
+      <c r="K50" t="s">
+        <v>245</v>
+      </c>
+      <c r="L50" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J51" t="s">
+        <v>243</v>
+      </c>
+      <c r="L51" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>250</v>
+      </c>
+      <c r="B53" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" t="s">
+        <v>252</v>
+      </c>
+      <c r="F53" t="s">
+        <v>251</v>
+      </c>
+      <c r="G53" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G54" t="s">
+        <v>253</v>
+      </c>
+      <c r="H54" t="s">
+        <v>252</v>
+      </c>
+      <c r="I54" t="s">
+        <v>170</v>
+      </c>
+      <c r="J54" t="s">
+        <v>172</v>
+      </c>
+      <c r="K54" t="s">
+        <v>184</v>
+      </c>
+      <c r="L54" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K55" t="s">
+        <v>185</v>
+      </c>
+      <c r="L55" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>255</v>
+      </c>
+      <c r="B57" t="s">
+        <v>256</v>
+      </c>
+      <c r="C57" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57" t="s">
+        <v>254</v>
+      </c>
+      <c r="F57" t="s">
+        <v>257</v>
+      </c>
+      <c r="G57" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G58" t="s">
+        <v>258</v>
+      </c>
+      <c r="H58" t="s">
+        <v>259</v>
+      </c>
+      <c r="I58" t="s">
+        <v>260</v>
+      </c>
+      <c r="J58" t="s">
+        <v>183</v>
+      </c>
+      <c r="K58" t="s">
+        <v>261</v>
+      </c>
+      <c r="L58" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L59" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/jquery-1.7.2/jQuery-1.7.2选择器模块.xlsx
+++ b/jquery-1.7.2/jQuery-1.7.2选择器模块.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="275">
   <si>
     <t>Sizzle选择器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1068,6 +1068,54 @@
   </si>
   <si>
     <t>Expr.preFilter["CHILD"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>querySelectorAll支持CSS3情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:last-of-type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:only-of-type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:only-child</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:nth-child()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:nth-last-child()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:nth-last-of-type()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:last-child</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:first-of-type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:nth-of-type()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:root</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1091,12 +1139,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1111,11 +1171,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1593,16 +1655,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="43.625" customWidth="1"/>
-    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="151.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1984,13 +2046,82 @@
         <v>229</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
         <v>230</v>
       </c>
       <c r="C97" t="s">
         <v>231</v>
       </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>263</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B103" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B104" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B105" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B106" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B107" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B108" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B109" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B110" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B111" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B112" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C112" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2003,8 +2134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L59" sqref="L59"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
